--- a/data/congress/csv/2018FD.xlsx
+++ b/data/congress/csv/2018FD.xlsx
@@ -32921,7 +32921,7 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Spouse/DC</t>
+          <t>$1,000,001 - $5,000,000</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
